--- a/x/TrainingSet.xlsx
+++ b/x/TrainingSet.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>0.27</t>
   </si>
@@ -75,9 +75,6 @@
     <t>0.96</t>
   </si>
   <si>
-    <t>0.30</t>
-  </si>
-  <si>
     <t>0.71</t>
   </si>
   <si>
@@ -87,21 +84,12 @@
     <t>0.49</t>
   </si>
   <si>
-    <t>0.16</t>
-  </si>
-  <si>
-    <t>0.36</t>
-  </si>
-  <si>
     <t>0.48</t>
   </si>
   <si>
     <t>0.97</t>
   </si>
   <si>
-    <t>0.54</t>
-  </si>
-  <si>
     <t>0.04</t>
   </si>
   <si>
@@ -114,15 +102,9 @@
     <t>0.24</t>
   </si>
   <si>
-    <t>0.93</t>
-  </si>
-  <si>
     <t>0.61</t>
   </si>
   <si>
-    <t>0.17</t>
-  </si>
-  <si>
     <t>0.18</t>
   </si>
   <si>
@@ -135,9 +117,6 @@
     <t>0.64</t>
   </si>
   <si>
-    <t>0.68</t>
-  </si>
-  <si>
     <t>0.08</t>
   </si>
   <si>
@@ -153,9 +132,6 @@
     <t>0.58</t>
   </si>
   <si>
-    <t>0.37</t>
-  </si>
-  <si>
     <t>0.90</t>
   </si>
   <si>
@@ -169,6 +145,27 @@
   </si>
   <si>
     <t>0.67</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.56 </t>
+  </si>
+  <si>
+    <t>0.50</t>
+  </si>
+  <si>
+    <t>0.51</t>
+  </si>
+  <si>
+    <t>0.53</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.63</t>
   </si>
 </sst>
 </file>
@@ -995,13 +992,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -1021,7 +1020,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>5</v>
@@ -1041,7 +1040,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -1061,7 +1060,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>14</v>
@@ -1081,213 +1080,213 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
         <v>17</v>
       </c>
       <c r="C5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="D5" t="s">
+      <c r="E5" t="s">
         <v>19</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>20</v>
-      </c>
-      <c r="F5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
         <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>46</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" t="s">
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="E11" t="s">
         <v>12</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="C12" t="s">
         <v>13</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="F12" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="F13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" t="s">
         <v>39</v>
       </c>
-      <c r="D14" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" t="s">
-        <v>47</v>
-      </c>
       <c r="F14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B15" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D15" t="s">
         <v>15</v>
@@ -1296,7 +1295,7 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
